--- a/Bin/resource/excel/InitProperty.xlsx
+++ b/Bin/resource/excel/InitProperty.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\ARK.net_header\Bin\resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="DataNode" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,8 +27,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="InitProperty" type="4" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="InitProperty" type="4" refreshedVersion="2" background="1" saveData="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\InitProperty.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -451,8 +451,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,169 +461,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -632,48 +489,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,12 +767,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -967,1128 +785,999 @@
     <col min="6" max="6" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="13">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="13">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="13">
-        <v>1</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="13">
-        <v>1</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>7</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="13">
-        <v>1</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>8</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="13">
-        <v>1</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>9</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="13">
-        <v>1</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>10</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="13">
-        <v>1</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>11</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="13">
-        <v>1</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>12</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="13">
-        <v>1</v>
-      </c>
-      <c r="C21" s="13">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>13</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="13">
-        <v>1</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>14</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="13">
-        <v>1</v>
-      </c>
-      <c r="C23" s="13">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>15</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="12" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="13">
-        <v>1</v>
-      </c>
-      <c r="C24" s="13">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>16</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="13">
-        <v>1</v>
-      </c>
-      <c r="C25" s="13">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>17</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="13">
-        <v>1</v>
-      </c>
-      <c r="C26" s="13">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>18</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="13">
-        <v>1</v>
-      </c>
-      <c r="C27" s="13">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>19</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="13">
-        <v>1</v>
-      </c>
-      <c r="C28" s="13">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>20</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="13">
-        <v>1</v>
-      </c>
-      <c r="C29" s="13">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>21</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="13">
-        <v>1</v>
-      </c>
-      <c r="C30" s="13">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
         <v>22</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="13">
-        <v>1</v>
-      </c>
-      <c r="C31" s="13">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>23</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="12" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="13">
-        <v>1</v>
-      </c>
-      <c r="C32" s="13">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
         <v>24</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="12" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="13">
-        <v>1</v>
-      </c>
-      <c r="C33" s="13">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
         <v>25</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="13">
-        <v>1</v>
-      </c>
-      <c r="C34" s="13">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="12" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="13">
-        <v>1</v>
-      </c>
-      <c r="C35" s="13">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
         <v>27</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="12" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="13">
-        <v>1</v>
-      </c>
-      <c r="C36" s="13">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
         <v>28</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="13">
-        <v>1</v>
-      </c>
-      <c r="C37" s="13">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
         <v>29</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="12" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="13">
-        <v>1</v>
-      </c>
-      <c r="C38" s="13">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
         <v>30</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="12" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="13">
-        <v>1</v>
-      </c>
-      <c r="C39" s="13">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
         <v>31</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="12" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="13">
-        <v>1</v>
-      </c>
-      <c r="C40" s="13">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
         <v>32</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="12" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="13">
-        <v>1</v>
-      </c>
-      <c r="C41" s="13">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>33</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="12" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="13">
-        <v>1</v>
-      </c>
-      <c r="C42" s="13">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
         <v>34</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="12" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="13">
-        <v>1</v>
-      </c>
-      <c r="C43" s="13">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
         <v>35</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="12" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="13">
-        <v>1</v>
-      </c>
-      <c r="C44" s="13">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>36</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="12" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="13">
-        <v>1</v>
-      </c>
-      <c r="C45" s="13">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
         <v>37</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="12" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="13">
-        <v>1</v>
-      </c>
-      <c r="C46" s="13">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
         <v>38</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="12" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="13">
-        <v>1</v>
-      </c>
-      <c r="C47" s="13">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
         <v>39</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="12" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="13">
-        <v>1</v>
-      </c>
-      <c r="C48" s="13">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <v>40</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="12" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="13">
-        <v>1</v>
-      </c>
-      <c r="C49" s="13">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
         <v>41</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="12" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="13">
-        <v>1</v>
-      </c>
-      <c r="C50" s="13">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
         <v>42</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="12" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="13">
-        <v>1</v>
-      </c>
-      <c r="C51" s="13">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
         <v>43</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="12" t="s">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="13">
-        <v>1</v>
-      </c>
-      <c r="C52" s="13">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
         <v>44</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="12" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="13">
-        <v>1</v>
-      </c>
-      <c r="C53" s="13">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
         <v>45</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="12" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="13">
-        <v>1</v>
-      </c>
-      <c r="C54" s="13">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
         <v>46</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="12" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="13">
-        <v>1</v>
-      </c>
-      <c r="C55" s="13">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
         <v>47</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="12" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="13">
-        <v>1</v>
-      </c>
-      <c r="C56" s="13">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
         <v>48</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="12" t="s">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="13">
-        <v>1</v>
-      </c>
-      <c r="C57" s="13">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
         <v>49</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" t="s">
         <v>114</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="12" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="13">
-        <v>1</v>
-      </c>
-      <c r="C58" s="13">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
         <v>50</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" t="s">
         <v>116</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="12" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="13">
-        <v>1</v>
-      </c>
-      <c r="C59" s="13">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
         <v>51</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" t="s">
         <v>118</v>
       </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="12" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="13">
-        <v>1</v>
-      </c>
-      <c r="C60" s="13">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
         <v>52</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="12" t="s">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="13">
-        <v>1</v>
-      </c>
-      <c r="C61" s="13">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
         <v>53</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" t="s">
         <v>122</v>
       </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="12" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="13">
-        <v>1</v>
-      </c>
-      <c r="C62" s="13">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
         <v>54</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="12" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>125</v>
       </c>
-      <c r="B63" s="13">
-        <v>1</v>
-      </c>
-      <c r="C63" s="13">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
         <v>55</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" t="s">
         <v>126</v>
       </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="12" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="13">
-        <v>1</v>
-      </c>
-      <c r="C64" s="13">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
         <v>56</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" t="s">
         <v>128</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="12" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="13">
-        <v>1</v>
-      </c>
-      <c r="C65" s="13">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
         <v>57</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="12" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="13">
-        <v>1</v>
-      </c>
-      <c r="C66" s="13">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
         <v>58</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="12" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="13">
-        <v>1</v>
-      </c>
-      <c r="C67" s="13">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
         <v>59</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" t="s">
         <v>134</v>
       </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="12" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="13">
-        <v>1</v>
-      </c>
-      <c r="C68" s="13">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
         <v>60</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" t="s">
         <v>136</v>
       </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J7" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>